--- a/RainData.xlsx
+++ b/RainData.xlsx
@@ -5,12 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="313">
   <si>
     <t xml:space="preserve">Month</t>
   </si>
@@ -961,84 +959,6 @@
   </si>
   <si>
     <t xml:space="preserve">64.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fevereiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Março</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agosto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setembro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outubro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novembro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dezembro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +969,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1070,20 +990,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1128,7 +1034,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1141,44 +1047,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E611"/>
+  <dimension ref="A1:E648"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A310" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E612" activeCellId="0" sqref="E612"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="7.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11568,393 +11465,642 @@
         <v>18</v>
       </c>
     </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B612" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E612" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B613" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E613" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B614" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C614" s="1" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D614" s="1" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E614" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B615" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C615" s="1" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D615" s="1" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="E615" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B616" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C616" s="1" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D616" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E616" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B617" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C617" s="1" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D617" s="1" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E617" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B618" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C618" s="1" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D618" s="1" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="E618" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B619" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C619" s="1" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D619" s="1" t="n">
+        <v>75.6</v>
+      </c>
+      <c r="E619" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B620" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C620" s="1" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D620" s="1" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E620" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B621" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C621" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D621" s="1" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E621" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B622" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C622" s="1" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D622" s="1" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E622" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B623" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C623" s="1" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D623" s="1" t="n">
+        <v>88.4</v>
+      </c>
+      <c r="E623" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B624" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C624" s="1" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D624" s="1" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="E624" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B625" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C625" s="1" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D625" s="1" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E625" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B626" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C626" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D626" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="E626" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B627" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C627" s="1" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D627" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E627" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B628" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C628" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D628" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="E628" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B629" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C629" s="1" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D629" s="1" t="n">
+        <v>68.9</v>
+      </c>
+      <c r="E629" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B630" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C630" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D630" s="1" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E630" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B631" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C631" s="1" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D631" s="1" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E631" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B632" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C632" s="1" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D632" s="1" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E632" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B633" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C633" s="1" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D633" s="1" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E633" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B634" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C634" s="1" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D634" s="1" t="n">
+        <v>74.6</v>
+      </c>
+      <c r="E634" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B635" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C635" s="1" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D635" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="E635" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B636" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C636" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D636" s="1" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E636" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B637" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C637" s="1" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D637" s="1" t="n">
+        <v>71.6</v>
+      </c>
+      <c r="E637" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B638" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C638" s="1" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D638" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="E638" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B639" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C639" s="1" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D639" s="1" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E639" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B640" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C640" s="1" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D640" s="1" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="E640" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B641" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C641" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D641" s="1" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="E641" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B642" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C642" s="1" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D642" s="1" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E642" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B643" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C643" s="1" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D643" s="1" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="E643" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B644" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C644" s="1" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D644" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E644" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B645" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C645" s="1" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D645" s="1" t="n">
+        <v>77.4</v>
+      </c>
+      <c r="E645" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B646" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C646" s="1" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D646" s="1" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="E646" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B647" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C647" s="1" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D647" s="1" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="E647" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B648" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C648" s="1" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D648" s="1" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="E648" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>1967</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>